--- a/medicine/Psychotrope/Rince_Cochon/Rince_Cochon.xlsx
+++ b/medicine/Psychotrope/Rince_Cochon/Rince_Cochon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rince Cochon est une bière à façon blonde à l'origine française mais actuellement brassée en Belgique pour le compte d'une société française[1]. C'est une bière de fermentation haute, ayant un haut degré d'alcool (8,5 % alc./vol.). Elle est fabriquée à partir d'eau, de malt, de houblon, d'orge, et de levure.
-La Rince Cochon a été conçue par le brasseur SBA et brassée par les brasseries Huyghe (2008-2009) et Haacht (depuis 2010). À la suite de la faillite de la Société Artisans de la bière, elle est commercialisée par la société Difcom[2].
+Rince Cochon est une bière à façon blonde à l'origine française mais actuellement brassée en Belgique pour le compte d'une société française. C'est une bière de fermentation haute, ayant un haut degré d'alcool (8,5 % alc./vol.). Elle est fabriquée à partir d'eau, de malt, de houblon, d'orge, et de levure.
+La Rince Cochon a été conçue par le brasseur SBA et brassée par les brasseries Huyghe (2008-2009) et Haacht (depuis 2010). À la suite de la faillite de la Société Artisans de la bière, elle est commercialisée par la société Difcom.
 </t>
         </is>
       </c>
